--- a/Opencart application Testcases.xlsx
+++ b/Opencart application Testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="20340" windowHeight="7950"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20340" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="227">
   <si>
     <t>Opencart</t>
   </si>
@@ -800,6 +800,34 @@
   </si>
   <si>
     <t>P2</t>
+  </si>
+  <si>
+    <t>User able to access opencart registration form</t>
+  </si>
+  <si>
+    <t>User able to interact with all the input field.</t>
+  </si>
+  <si>
+    <t>Page displayed 'Your Account Has Been Created!' and a confirmation message was recieved on registered mail id.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page displayed 'Warning: E-Mail Address is already registered!' </t>
+  </si>
+  <si>
+    <t>Page displayed a warning to fill all the mandatory fields.</t>
+  </si>
+  <si>
+    <t>The user able to submit the registration form along with other fields for valid input. No issue was found.</t>
+  </si>
+  <si>
+    <t>1. The user couldn't submit the registration form.
+2. Page displayed 'First Name must be between 1 and 32 characters!'</t>
+  </si>
+  <si>
+    <t>The user able to submit the registration form along with other fields for valid input.</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1711,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K96"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1723,7 +1751,7 @@
     <col min="4" max="4" width="13.125" style="11" customWidth="1"/>
     <col min="5" max="5" width="28.625" style="10" customWidth="1"/>
     <col min="6" max="6" width="26.125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="22.875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="27" style="12" customWidth="1"/>
     <col min="8" max="9" width="19.875" style="11" customWidth="1"/>
     <col min="10" max="11" width="19.875" style="12" customWidth="1"/>
     <col min="12" max="13" width="19.875" style="13" customWidth="1"/>
@@ -1822,9 +1850,13 @@
       <c r="F9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="G9" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
@@ -1847,9 +1879,13 @@
       <c r="F10" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="G10" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
     </row>
@@ -1872,9 +1908,13 @@
       <c r="F11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="G11" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
     </row>
@@ -1897,9 +1937,13 @@
       <c r="F12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
+      <c r="G12" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
     </row>
@@ -1922,9 +1966,13 @@
       <c r="F13" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
+      <c r="G13" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
@@ -1947,9 +1995,13 @@
       <c r="F14" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+      <c r="G14" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
     </row>
@@ -1972,9 +2024,13 @@
       <c r="F15" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
+      <c r="G15" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
     </row>
@@ -1997,9 +2053,13 @@
       <c r="F16" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
+      <c r="G16" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
     </row>
@@ -2022,9 +2082,13 @@
       <c r="F17" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="G17" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
     </row>
@@ -2047,9 +2111,13 @@
       <c r="F18" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
+      <c r="G18" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
     </row>
@@ -2074,7 +2142,7 @@
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
     </row>
@@ -2099,7 +2167,7 @@
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
     </row>
@@ -2124,7 +2192,7 @@
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
     </row>
@@ -2149,7 +2217,7 @@
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
     </row>
@@ -2174,7 +2242,7 @@
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
     </row>
@@ -2199,7 +2267,7 @@
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
     </row>
@@ -2224,7 +2292,7 @@
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
     </row>
@@ -2249,7 +2317,7 @@
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
     </row>
@@ -2274,7 +2342,7 @@
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
     </row>
@@ -2299,7 +2367,7 @@
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
     </row>
@@ -2324,7 +2392,7 @@
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
     </row>
@@ -2349,7 +2417,7 @@
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
     </row>
@@ -2374,7 +2442,7 @@
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
     </row>
@@ -2399,7 +2467,7 @@
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
     </row>
@@ -2424,7 +2492,7 @@
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
     </row>
@@ -2449,7 +2517,7 @@
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
     </row>
@@ -2474,7 +2542,7 @@
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
     </row>
@@ -2499,7 +2567,7 @@
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
     </row>
@@ -2524,7 +2592,7 @@
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
     </row>
@@ -2549,7 +2617,7 @@
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
     </row>
@@ -2574,7 +2642,7 @@
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
     </row>
@@ -2599,7 +2667,7 @@
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
+      <c r="I40" s="15"/>
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
     </row>
@@ -3338,7 +3406,7 @@
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H9:I39">
+  <conditionalFormatting sqref="H9:H39">
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Hold">
       <formula>NOT(ISERROR(SEARCH("Hold",H9)))</formula>
     </cfRule>
@@ -3356,7 +3424,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:I39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H39">
       <formula1>"Pass, Fail, Hold, In-Progress"</formula1>
     </dataValidation>
   </dataValidations>
